--- a/synuclein_inclusion_biogenesis_2024/image_analysis/galectin/23525_3K_nodox.xlsx
+++ b/synuclein_inclusion_biogenesis_2024/image_analysis/galectin/23525_3K_nodox.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,27 +471,42 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Density Around Inclusions</t>
+          <t>Density Around Galectin</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Density Around Rest of Cells</t>
+          <t>Density Around Rest of Cells (refering to galectin)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Density Around Red</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Density Around Rest of Cells (refering to red)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>Green Overlap with Red Num</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Green Total Num</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Red Total Num</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>overlap num/red total num</t>
         </is>
       </c>
     </row>
@@ -520,19 +535,28 @@
         <v>0.4948545861297539</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04542501033729104</v>
+        <v>0.05233428610317136</v>
       </c>
       <c r="I2" t="n">
         <v>0.02597999770088516</v>
       </c>
       <c r="J2" t="n">
+        <v>0.04701885138097326</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.004504504504504504</v>
+      </c>
+      <c r="L2" t="n">
         <v>19</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>23</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>30</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -560,19 +584,28 @@
         <v>0.6805392731535757</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09154546161624018</v>
+        <v>0.1055510716527666</v>
       </c>
       <c r="I3" t="n">
         <v>0.004335185089040029</v>
       </c>
       <c r="J3" t="n">
+        <v>0.03139685626316643</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.002060060931379661</v>
+      </c>
+      <c r="L3" t="n">
         <v>29</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>35</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>37</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.7837837837837838</v>
       </c>
     </row>
     <row r="4">
@@ -600,19 +633,28 @@
         <v>0.03014878621769773</v>
       </c>
       <c r="H4" t="n">
-        <v>0.004239854633555421</v>
+        <v>0.006913580246913581</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0.5067354542848954</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.02967136150234742</v>
+      </c>
+      <c r="L4" t="n">
         <v>1</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>4</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -640,19 +682,28 @@
         <v>0.7212720470336719</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03247201879231726</v>
+        <v>0.04379426015654118</v>
       </c>
       <c r="I5" t="n">
         <v>0.003615328994938539</v>
       </c>
       <c r="J5" t="n">
+        <v>0.09132778049975503</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.006439841150584952</v>
+      </c>
+      <c r="L5" t="n">
         <v>8</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>11</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>12</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="6">
@@ -680,19 +731,28 @@
         <v>0.5434083601286174</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07849304068522484</v>
+        <v>0.09417148362235067</v>
       </c>
       <c r="I6" t="n">
         <v>0.0001165908825929812</v>
       </c>
       <c r="J6" t="n">
+        <v>0.05786850988587044</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.001911018214392356</v>
+      </c>
+      <c r="L6" t="n">
         <v>15</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>18</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>17</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.8823529411764706</v>
       </c>
     </row>
     <row r="7">
@@ -720,19 +780,28 @@
         <v>0.7628687102371313</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02681641072656429</v>
+        <v>0.0334429041017579</v>
       </c>
       <c r="I7" t="n">
         <v>0.008374426118007141</v>
       </c>
       <c r="J7" t="n">
+        <v>0.03605524144962462</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.001065394957130536</v>
+      </c>
+      <c r="L7" t="n">
         <v>3</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>8</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>12</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="8">
@@ -760,19 +829,28 @@
         <v>0.1466776950647918</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01229754049190162</v>
+        <v>0.0157172429655754</v>
       </c>
       <c r="I8" t="n">
         <v>0.002365930599369085</v>
       </c>
       <c r="J8" t="n">
+        <v>0.0821684786628208</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.002741798241467335</v>
+      </c>
+      <c r="L8" t="n">
         <v>12</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>19</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>21</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="9">
@@ -800,19 +878,28 @@
         <v>0.8356112376613516</v>
       </c>
       <c r="H9" t="n">
-        <v>0.08876854250058865</v>
+        <v>0.1119026417334521</v>
       </c>
       <c r="I9" t="n">
         <v>0.01858648040724518</v>
       </c>
       <c r="J9" t="n">
+        <v>0.02828586360073164</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>10</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>14</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>21</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.4761904761904762</v>
       </c>
     </row>
     <row r="10">
@@ -840,19 +927,28 @@
         <v>0.08418367346938775</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2188757807078418</v>
+        <v>0.261569082766628</v>
       </c>
       <c r="I10" t="n">
         <v>0.02607517778530308</v>
       </c>
       <c r="J10" t="n">
+        <v>0.05683576956147893</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.003396284670406011</v>
+      </c>
+      <c r="L10" t="n">
         <v>3</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>6</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="11">
@@ -880,19 +976,28 @@
         <v>0.1888111888111888</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1196995396171553</v>
+        <v>0.1286123405363187</v>
       </c>
       <c r="I11" t="n">
         <v>0.01352719907407407</v>
       </c>
       <c r="J11" t="n">
+        <v>0.02533875338753388</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>2</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>4</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="12">
@@ -920,19 +1025,28 @@
         <v>0.2616136919315403</v>
       </c>
       <c r="H12" t="n">
-        <v>0.119573400250941</v>
+        <v>0.1332494407158837</v>
       </c>
       <c r="I12" t="n">
         <v>0.02754741240758599</v>
       </c>
       <c r="J12" t="n">
+        <v>0.03549016873518338</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.001765302970122247</v>
+      </c>
+      <c r="L12" t="n">
         <v>4</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>9</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>30</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="13">
@@ -966,14 +1080,23 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.03549016873518338</v>
       </c>
       <c r="K13" t="n">
-        <v>10</v>
+        <v>0.001765302970122247</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
+      <c r="M13" t="n">
+        <v>10</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1000,19 +1123,28 @@
         <v>0.01220865704772475</v>
       </c>
       <c r="H14" t="n">
-        <v>0.05845844166736559</v>
+        <v>0.06323716203955725</v>
       </c>
       <c r="I14" t="n">
         <v>0.007779919397231471</v>
       </c>
       <c r="J14" t="n">
+        <v>0.06609571788413099</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.00649504414600318</v>
+      </c>
+      <c r="L14" t="n">
         <v>5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>16</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>16</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.3125</v>
       </c>
     </row>
   </sheetData>
